--- a/word_features/季/ENG,2020-4~2020-7,文档_主题矩阵.xlsx
+++ b/word_features/季/ENG,2020-4~2020-7,文档_主题矩阵.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
   <si>
     <t>主题1</t>
   </si>
@@ -59,6 +59,756 @@
   </si>
   <si>
     <t>疫苗/4513.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4739.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4705.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4711.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4710.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4704.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4738.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4512.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4506.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4499.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4466.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4472.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4843.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4857.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4664.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4670.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4658.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4880.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4894.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4882.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4896.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4666.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4672.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4699.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4841.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4855.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4869.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4464.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4470.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4538.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4510.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4504.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4712.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4706.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4707.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4713.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4505.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4511.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4539.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4471.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4465.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4868.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4854.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4840.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4698.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4673.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4667.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4897.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4883.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4663.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4677.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4887.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4893.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4878.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4844.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4688.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4850.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4461.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4475.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4515.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4501.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4529.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4717.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4703.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4702.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4716.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4528.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4500.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4514.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4474.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4460.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4851.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4689.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4845.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4879.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4892.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4886.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4676.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4662.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4674.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4660.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4890.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4648.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4884.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4853.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4847.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4476.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4462.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4489.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4502.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4516.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4700.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4714.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4728.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4729.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4715.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4701.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4517.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4503.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4488.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4463.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4477.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4846.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4852.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4885.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4649.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4891.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4661.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4675.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4612.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4606.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4835.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4821.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4809.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4558.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4564.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4570.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4766.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4772.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4799.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4798.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4773.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4767.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4571.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4565.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4559.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4808.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4820.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4834.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4613.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4639.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4605.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4611.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4822.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4836.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4573.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4567.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4598.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4759.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4771.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4765.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4764.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4770.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4758.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4599.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4566.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4572.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4837.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4823.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4610.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4604.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4638.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4600.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4614.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4628.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4827.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4833.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4576.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4562.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4589.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4774.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4760.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4748.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4749.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4761.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4775.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4588.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4563.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4577.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4832.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4826.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4629.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4615.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4601.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4617.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4603.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4818.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4830.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4824.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4561.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4575.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4549.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4763.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4777.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4788.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4789.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4776.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4762.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4548.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4574.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4560.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4825.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4831.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4819.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4602.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4616.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4633.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4627.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4814.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4800.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4828.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4579.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4545.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4551.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4586.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4592.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4747.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4753.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4784.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4790.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4791.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4785.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4752.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4746.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4593.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4587.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4550.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4544.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4578.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4829.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4801.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4815.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4626.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4632.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4618.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4624.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4630.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4803.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4817.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4552.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4546.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4591.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4585.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4778.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4750.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4744.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4793.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4787.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4786.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4792.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4745.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4751.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4779.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4584.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4590.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4547.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4553.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4816.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4802.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4631.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4625.txt</t>
   </si>
 </sst>
 </file>
@@ -416,7 +1166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,13 +1188,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.003604408803523633</v>
+        <v>0.7001262189925591</v>
       </c>
       <c r="C2">
-        <v>0.003671562576077005</v>
+        <v>0.2419356290445669</v>
       </c>
       <c r="D2">
-        <v>0.9927240286203993</v>
+        <v>0.05793815196287402</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -452,13 +1202,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.008308555090657239</v>
+        <v>0.1478695200995679</v>
       </c>
       <c r="C3">
-        <v>0.9830326796804598</v>
+        <v>0.4276828908827329</v>
       </c>
       <c r="D3">
-        <v>0.008658765228882875</v>
+        <v>0.4244475890176991</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -466,13 +1216,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.01089123639497855</v>
+        <v>0.9716644142317548</v>
       </c>
       <c r="C4">
-        <v>0.01050271960505665</v>
+        <v>0.01555011790063738</v>
       </c>
       <c r="D4">
-        <v>0.9786060439999648</v>
+        <v>0.01278546786760785</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -480,13 +1230,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.009002045232135679</v>
+        <v>0.2944206774031528</v>
       </c>
       <c r="C5">
-        <v>0.8861287475516639</v>
+        <v>0.6618909527149127</v>
       </c>
       <c r="D5">
-        <v>0.1048692072162004</v>
+        <v>0.04368836988193443</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -494,13 +1244,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.004507808834631958</v>
+        <v>0.3995403566696036</v>
       </c>
       <c r="C6">
-        <v>0.004507218652126811</v>
+        <v>0.5757266419530792</v>
       </c>
       <c r="D6">
-        <v>0.9909849725132412</v>
+        <v>0.02473300137731718</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -508,13 +1258,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.004291252266005304</v>
+        <v>0.9769760775298547</v>
       </c>
       <c r="C7">
-        <v>0.003816026645152257</v>
+        <v>0.01227875108145162</v>
       </c>
       <c r="D7">
-        <v>0.9918927210888424</v>
+        <v>0.01074517138869366</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -522,13 +1272,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006002701277810201</v>
+        <v>0.8731021915360383</v>
       </c>
       <c r="C8">
-        <v>0.0006125121075722354</v>
+        <v>0.1258333983599733</v>
       </c>
       <c r="D8">
-        <v>0.9987872177646469</v>
+        <v>0.001064410103988338</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -536,13 +1286,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.00337999063194458</v>
+        <v>0.4929672118784795</v>
       </c>
       <c r="C9">
-        <v>0.9929741658784043</v>
+        <v>0.4925762364935715</v>
       </c>
       <c r="D9">
-        <v>0.00364584348965113</v>
+        <v>0.01445655162794907</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -550,13 +1300,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.9758950041329518</v>
+        <v>0.02761867877046755</v>
       </c>
       <c r="C10">
-        <v>0.01263723755811779</v>
+        <v>0.9458142392671248</v>
       </c>
       <c r="D10">
-        <v>0.01146775830893029</v>
+        <v>0.02656708196240773</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -564,13 +1314,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.01184064550239146</v>
+        <v>0.2376058485315886</v>
       </c>
       <c r="C11">
-        <v>0.9763418848979635</v>
+        <v>0.5591966539008074</v>
       </c>
       <c r="D11">
-        <v>0.01181746959964504</v>
+        <v>0.203197497567604</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -578,13 +1328,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.9840295197633673</v>
+        <v>0.007960064735316328</v>
       </c>
       <c r="C12">
-        <v>0.00786760091627792</v>
+        <v>0.6509218371243528</v>
       </c>
       <c r="D12">
-        <v>0.008102879320354851</v>
+        <v>0.3411180981403309</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -592,13 +1342,3513 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.9970645368059516</v>
+        <v>0.1604138034007554</v>
       </c>
       <c r="C13">
-        <v>0.001444045237360732</v>
+        <v>0.1713937016603314</v>
       </c>
       <c r="D13">
-        <v>0.00149141795668772</v>
+        <v>0.6681924949389132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.4177671636440818</v>
+      </c>
+      <c r="C14">
+        <v>0.444489453546152</v>
+      </c>
+      <c r="D14">
+        <v>0.1377433828097663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0.9060662288549376</v>
+      </c>
+      <c r="C15">
+        <v>0.007550529718151414</v>
+      </c>
+      <c r="D15">
+        <v>0.08638324142691102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0.9374587152651912</v>
+      </c>
+      <c r="C16">
+        <v>0.03749268855238704</v>
+      </c>
+      <c r="D16">
+        <v>0.02504859618242174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>0.01116672022834184</v>
+      </c>
+      <c r="C17">
+        <v>0.7395492146470272</v>
+      </c>
+      <c r="D17">
+        <v>0.249284065124631</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0.2251517288156271</v>
+      </c>
+      <c r="C18">
+        <v>0.757075502749101</v>
+      </c>
+      <c r="D18">
+        <v>0.01777276843527178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>0.02400787470010586</v>
+      </c>
+      <c r="C19">
+        <v>0.9506886900624085</v>
+      </c>
+      <c r="D19">
+        <v>0.02530343523748567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0.01951598889528236</v>
+      </c>
+      <c r="C20">
+        <v>0.9457342581102419</v>
+      </c>
+      <c r="D20">
+        <v>0.03474975299447575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0.01756499414760662</v>
+      </c>
+      <c r="C21">
+        <v>0.9648373789643049</v>
+      </c>
+      <c r="D21">
+        <v>0.01759762688808857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>0.0645616094380734</v>
+      </c>
+      <c r="C22">
+        <v>0.8523597621639207</v>
+      </c>
+      <c r="D22">
+        <v>0.08307862839800587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>0.8859249235654316</v>
+      </c>
+      <c r="C23">
+        <v>0.0938982242408794</v>
+      </c>
+      <c r="D23">
+        <v>0.02017685219368898</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>0.669384026741547</v>
+      </c>
+      <c r="C24">
+        <v>0.009495357542136283</v>
+      </c>
+      <c r="D24">
+        <v>0.3211206157163168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0.3434688775815786</v>
+      </c>
+      <c r="C25">
+        <v>0.6492392950264347</v>
+      </c>
+      <c r="D25">
+        <v>0.007291827391986831</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>0.7159924445699114</v>
+      </c>
+      <c r="C26">
+        <v>0.09070848992813625</v>
+      </c>
+      <c r="D26">
+        <v>0.1932990655019523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>0.8210870831242856</v>
+      </c>
+      <c r="C27">
+        <v>0.1398737019756093</v>
+      </c>
+      <c r="D27">
+        <v>0.03903921490010508</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>0.4658004509172931</v>
+      </c>
+      <c r="C28">
+        <v>0.526023699995853</v>
+      </c>
+      <c r="D28">
+        <v>0.008175849086854037</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0.7742606664101063</v>
+      </c>
+      <c r="C29">
+        <v>0.2202864816682834</v>
+      </c>
+      <c r="D29">
+        <v>0.005452851921610242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0.9287483547370199</v>
+      </c>
+      <c r="C30">
+        <v>0.06673766079089999</v>
+      </c>
+      <c r="D30">
+        <v>0.004513984472079952</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>0.01446769515528801</v>
+      </c>
+      <c r="C31">
+        <v>0.9689323760430962</v>
+      </c>
+      <c r="D31">
+        <v>0.01659992880161582</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>0.1744569042179349</v>
+      </c>
+      <c r="C32">
+        <v>0.5108101868720583</v>
+      </c>
+      <c r="D32">
+        <v>0.3147329089100069</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>0.896618587320421</v>
+      </c>
+      <c r="C33">
+        <v>0.09487750326583236</v>
+      </c>
+      <c r="D33">
+        <v>0.00850390941374664</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>0.8193918930789794</v>
+      </c>
+      <c r="C34">
+        <v>0.11723565489935</v>
+      </c>
+      <c r="D34">
+        <v>0.06337245202167051</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>0.873846736262372</v>
+      </c>
+      <c r="C35">
+        <v>0.006691500128417536</v>
+      </c>
+      <c r="D35">
+        <v>0.1194617636092105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>0.8791314340608831</v>
+      </c>
+      <c r="C36">
+        <v>0.01164868292584657</v>
+      </c>
+      <c r="D36">
+        <v>0.1092198830132703</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>0.03011724907323199</v>
+      </c>
+      <c r="C37">
+        <v>0.9372188714637086</v>
+      </c>
+      <c r="D37">
+        <v>0.03266387946305943</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>0.9792129995187785</v>
+      </c>
+      <c r="C38">
+        <v>0.01067823814402249</v>
+      </c>
+      <c r="D38">
+        <v>0.010108762337199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>0.6307488041249502</v>
+      </c>
+      <c r="C39">
+        <v>0.3483515029425515</v>
+      </c>
+      <c r="D39">
+        <v>0.02089969293249842</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>0.9916614774613638</v>
+      </c>
+      <c r="C40">
+        <v>0.004158592201946522</v>
+      </c>
+      <c r="D40">
+        <v>0.004179930336689715</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>0.2621294287709533</v>
+      </c>
+      <c r="C41">
+        <v>0.7043491142260051</v>
+      </c>
+      <c r="D41">
+        <v>0.03352145700304161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>0.01193907638894399</v>
+      </c>
+      <c r="C42">
+        <v>0.4222944512009206</v>
+      </c>
+      <c r="D42">
+        <v>0.5657664724101354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>0.659615376013881</v>
+      </c>
+      <c r="C43">
+        <v>0.3311419233201456</v>
+      </c>
+      <c r="D43">
+        <v>0.00924270066597351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>0.5496697527313519</v>
+      </c>
+      <c r="C44">
+        <v>0.04726422882743479</v>
+      </c>
+      <c r="D44">
+        <v>0.4030660184412134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>0.9922346600283689</v>
+      </c>
+      <c r="C45">
+        <v>0.003805811243830308</v>
+      </c>
+      <c r="D45">
+        <v>0.003959528727800908</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>0.9192268881110658</v>
+      </c>
+      <c r="C46">
+        <v>0.07050727936170645</v>
+      </c>
+      <c r="D46">
+        <v>0.0102658325272278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>0.9285563539266537</v>
+      </c>
+      <c r="C47">
+        <v>0.01340364825004644</v>
+      </c>
+      <c r="D47">
+        <v>0.05803999782329988</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>0.9734378472456794</v>
+      </c>
+      <c r="C48">
+        <v>0.01441215126269249</v>
+      </c>
+      <c r="D48">
+        <v>0.01215000149162812</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>0.02801072383889217</v>
+      </c>
+      <c r="C49">
+        <v>0.9442944575745951</v>
+      </c>
+      <c r="D49">
+        <v>0.02769481858651272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>0.1774731974276327</v>
+      </c>
+      <c r="C50">
+        <v>0.7979903791734164</v>
+      </c>
+      <c r="D50">
+        <v>0.02453642339895101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>0.7188296543347062</v>
+      </c>
+      <c r="C51">
+        <v>0.236977720337565</v>
+      </c>
+      <c r="D51">
+        <v>0.04419262532772879</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>0.1598030220717957</v>
+      </c>
+      <c r="C52">
+        <v>0.1553103457574843</v>
+      </c>
+      <c r="D52">
+        <v>0.68488663217072</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>0.6131841782990106</v>
+      </c>
+      <c r="C53">
+        <v>0.3708587304909957</v>
+      </c>
+      <c r="D53">
+        <v>0.01595709120999355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>0.6882240229237282</v>
+      </c>
+      <c r="C54">
+        <v>0.2491487000524199</v>
+      </c>
+      <c r="D54">
+        <v>0.06262727702385182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>0.395027777916734</v>
+      </c>
+      <c r="C55">
+        <v>0.5724929634773094</v>
+      </c>
+      <c r="D55">
+        <v>0.03247925860595654</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>0.6398574655938335</v>
+      </c>
+      <c r="C56">
+        <v>0.3485204039574474</v>
+      </c>
+      <c r="D56">
+        <v>0.01162213044871914</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>0.6295613313899053</v>
+      </c>
+      <c r="C57">
+        <v>0.2387561551926893</v>
+      </c>
+      <c r="D57">
+        <v>0.1316825134174055</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>0.4079255827407254</v>
+      </c>
+      <c r="C58">
+        <v>0.5416666365172585</v>
+      </c>
+      <c r="D58">
+        <v>0.05040778074201605</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>0.007586709721114632</v>
+      </c>
+      <c r="C59">
+        <v>0.3588805866143214</v>
+      </c>
+      <c r="D59">
+        <v>0.633532703664564</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>0.1289600586769036</v>
+      </c>
+      <c r="C60">
+        <v>0.8613817543965149</v>
+      </c>
+      <c r="D60">
+        <v>0.009658186926581486</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>0.04390465052600205</v>
+      </c>
+      <c r="C61">
+        <v>0.7929920969245546</v>
+      </c>
+      <c r="D61">
+        <v>0.1631032525494433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>0.7560246710433913</v>
+      </c>
+      <c r="C62">
+        <v>0.2396082296079177</v>
+      </c>
+      <c r="D62">
+        <v>0.004367099348690948</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>0.6168553072265388</v>
+      </c>
+      <c r="C63">
+        <v>0.3681582064464933</v>
+      </c>
+      <c r="D63">
+        <v>0.01498648632696791</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>0.7916301780882296</v>
+      </c>
+      <c r="C64">
+        <v>0.1625927059878876</v>
+      </c>
+      <c r="D64">
+        <v>0.0457771159238829</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>0.9858244860843107</v>
+      </c>
+      <c r="C65">
+        <v>0.00786926104867184</v>
+      </c>
+      <c r="D65">
+        <v>0.006306252867017367</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>0.8403177296523421</v>
+      </c>
+      <c r="C66">
+        <v>0.1559556125543625</v>
+      </c>
+      <c r="D66">
+        <v>0.003726657793295408</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>0.01853664940697845</v>
+      </c>
+      <c r="C67">
+        <v>0.9611695838711714</v>
+      </c>
+      <c r="D67">
+        <v>0.02029376672185015</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>0.7803669803674641</v>
+      </c>
+      <c r="C68">
+        <v>0.1196009051916705</v>
+      </c>
+      <c r="D68">
+        <v>0.1000321144408654</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>0.3568876816821295</v>
+      </c>
+      <c r="C69">
+        <v>0.6409844203967808</v>
+      </c>
+      <c r="D69">
+        <v>0.002127897921089606</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>0.08721542638886179</v>
+      </c>
+      <c r="C70">
+        <v>0.1032562605578396</v>
+      </c>
+      <c r="D70">
+        <v>0.8095283130532986</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>0.05713893929385903</v>
+      </c>
+      <c r="C71">
+        <v>0.3906091712899571</v>
+      </c>
+      <c r="D71">
+        <v>0.5522518894161839</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>0.09018755538652197</v>
+      </c>
+      <c r="C72">
+        <v>0.494142585037541</v>
+      </c>
+      <c r="D72">
+        <v>0.4156698595759371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>0.02581607508313539</v>
+      </c>
+      <c r="C73">
+        <v>0.7267236612094422</v>
+      </c>
+      <c r="D73">
+        <v>0.2474602637074225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>0.2765680916061801</v>
+      </c>
+      <c r="C74">
+        <v>0.52956474925168</v>
+      </c>
+      <c r="D74">
+        <v>0.1938671591421399</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>0.7181069247368898</v>
+      </c>
+      <c r="C75">
+        <v>0.2557604676555446</v>
+      </c>
+      <c r="D75">
+        <v>0.02613260760756568</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>0.08887512559218856</v>
+      </c>
+      <c r="C76">
+        <v>0.8256786653157474</v>
+      </c>
+      <c r="D76">
+        <v>0.08544620909206406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>0.01238476088042732</v>
+      </c>
+      <c r="C77">
+        <v>0.681086127241624</v>
+      </c>
+      <c r="D77">
+        <v>0.3065291118779488</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78">
+        <v>0.1828266201360229</v>
+      </c>
+      <c r="C78">
+        <v>0.8138222209702642</v>
+      </c>
+      <c r="D78">
+        <v>0.003351158893712894</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <v>0.7203994293263402</v>
+      </c>
+      <c r="C79">
+        <v>0.1724541907581004</v>
+      </c>
+      <c r="D79">
+        <v>0.1071463799155593</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>0.02736153719305124</v>
+      </c>
+      <c r="C80">
+        <v>0.5472242792261338</v>
+      </c>
+      <c r="D80">
+        <v>0.4254141835808148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81">
+        <v>0.7978276301406811</v>
+      </c>
+      <c r="C81">
+        <v>0.1987460022795404</v>
+      </c>
+      <c r="D81">
+        <v>0.003426367579778419</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82">
+        <v>0.1778502567100606</v>
+      </c>
+      <c r="C82">
+        <v>0.6485346264774445</v>
+      </c>
+      <c r="D82">
+        <v>0.173615116812495</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83">
+        <v>0.1481488323642999</v>
+      </c>
+      <c r="C83">
+        <v>0.5245196606755783</v>
+      </c>
+      <c r="D83">
+        <v>0.3273315069601218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84">
+        <v>0.5758607473667331</v>
+      </c>
+      <c r="C84">
+        <v>0.417625008989935</v>
+      </c>
+      <c r="D84">
+        <v>0.006514243643331929</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85">
+        <v>0.07061690250023006</v>
+      </c>
+      <c r="C85">
+        <v>0.8541034410583397</v>
+      </c>
+      <c r="D85">
+        <v>0.07527965644143014</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86">
+        <v>0.2896221665457875</v>
+      </c>
+      <c r="C86">
+        <v>0.4450673000016874</v>
+      </c>
+      <c r="D86">
+        <v>0.265310533452525</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>0.04565600590603702</v>
+      </c>
+      <c r="C87">
+        <v>0.9385727322039408</v>
+      </c>
+      <c r="D87">
+        <v>0.01577126189002221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88">
+        <v>0.847574467976968</v>
+      </c>
+      <c r="C88">
+        <v>0.1493625068448643</v>
+      </c>
+      <c r="D88">
+        <v>0.003063025178167803</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89">
+        <v>0.8081340387957143</v>
+      </c>
+      <c r="C89">
+        <v>0.1829492205874804</v>
+      </c>
+      <c r="D89">
+        <v>0.008916740616805181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90">
+        <v>0.355916118674587</v>
+      </c>
+      <c r="C90">
+        <v>0.4768687377558564</v>
+      </c>
+      <c r="D90">
+        <v>0.1672151435695565</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91">
+        <v>0.5227233522541669</v>
+      </c>
+      <c r="C91">
+        <v>0.4548478862706689</v>
+      </c>
+      <c r="D91">
+        <v>0.02242876147516425</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92">
+        <v>0.09018258357890076</v>
+      </c>
+      <c r="C92">
+        <v>0.1068172076477219</v>
+      </c>
+      <c r="D92">
+        <v>0.8030002087733773</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>0.8472124700320633</v>
+      </c>
+      <c r="C93">
+        <v>0.1148691427534329</v>
+      </c>
+      <c r="D93">
+        <v>0.03791838721450383</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94">
+        <v>0.858918773357968</v>
+      </c>
+      <c r="C94">
+        <v>0.136809657877463</v>
+      </c>
+      <c r="D94">
+        <v>0.004271568764568948</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95">
+        <v>0.854515405917169</v>
+      </c>
+      <c r="C95">
+        <v>0.0174580117162162</v>
+      </c>
+      <c r="D95">
+        <v>0.1280265823666148</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96">
+        <v>0.3726700265616096</v>
+      </c>
+      <c r="C96">
+        <v>0.3604912318626007</v>
+      </c>
+      <c r="D96">
+        <v>0.2668387415757897</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97">
+        <v>0.09432370770913029</v>
+      </c>
+      <c r="C97">
+        <v>0.8775217364039478</v>
+      </c>
+      <c r="D97">
+        <v>0.02815455588692184</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98">
+        <v>0.7566736375128</v>
+      </c>
+      <c r="C98">
+        <v>0.2346085016464262</v>
+      </c>
+      <c r="D98">
+        <v>0.008717860840773793</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99">
+        <v>0.1148793575446486</v>
+      </c>
+      <c r="C99">
+        <v>0.8779073037898655</v>
+      </c>
+      <c r="D99">
+        <v>0.007213338665485926</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100">
+        <v>0.05113396747178852</v>
+      </c>
+      <c r="C100">
+        <v>0.8489156465886071</v>
+      </c>
+      <c r="D100">
+        <v>0.0999503859396044</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>0.1913557326144774</v>
+      </c>
+      <c r="C101">
+        <v>0.4455830337790224</v>
+      </c>
+      <c r="D101">
+        <v>0.3630612336065003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102">
+        <v>0.8658877315678652</v>
+      </c>
+      <c r="C102">
+        <v>0.00906490734417768</v>
+      </c>
+      <c r="D102">
+        <v>0.1250473610879571</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103">
+        <v>0.01285562808681934</v>
+      </c>
+      <c r="C103">
+        <v>0.8556686275303629</v>
+      </c>
+      <c r="D103">
+        <v>0.1314757443828177</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104">
+        <v>0.02898571049222912</v>
+      </c>
+      <c r="C104">
+        <v>0.7861515842295821</v>
+      </c>
+      <c r="D104">
+        <v>0.1848627052781887</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105">
+        <v>0.4984043836701343</v>
+      </c>
+      <c r="C105">
+        <v>0.4580543196042297</v>
+      </c>
+      <c r="D105">
+        <v>0.043541296725636</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106">
+        <v>0.9419767961500994</v>
+      </c>
+      <c r="C106">
+        <v>0.01107496636074703</v>
+      </c>
+      <c r="D106">
+        <v>0.0469482374891536</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107">
+        <v>0.2567385803750054</v>
+      </c>
+      <c r="C107">
+        <v>0.7218175922549366</v>
+      </c>
+      <c r="D107">
+        <v>0.02144382737005801</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108">
+        <v>0.9867724400530964</v>
+      </c>
+      <c r="C108">
+        <v>0.006915926610332467</v>
+      </c>
+      <c r="D108">
+        <v>0.006311633336571176</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109">
+        <v>0.8035393283703398</v>
+      </c>
+      <c r="C109">
+        <v>0.1856441729139707</v>
+      </c>
+      <c r="D109">
+        <v>0.01081649871568935</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110">
+        <v>0.2337737812975846</v>
+      </c>
+      <c r="C110">
+        <v>0.7452662715244299</v>
+      </c>
+      <c r="D110">
+        <v>0.02095994717798553</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111">
+        <v>0.06116025189955606</v>
+      </c>
+      <c r="C111">
+        <v>0.4742808585916691</v>
+      </c>
+      <c r="D111">
+        <v>0.4645588895087749</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112">
+        <v>0.9601452467173798</v>
+      </c>
+      <c r="C112">
+        <v>0.02026392862656878</v>
+      </c>
+      <c r="D112">
+        <v>0.01959082465605142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113">
+        <v>0.1199003287153322</v>
+      </c>
+      <c r="C113">
+        <v>0.8743897965641722</v>
+      </c>
+      <c r="D113">
+        <v>0.00570987472049554</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114">
+        <v>0.04581846354889695</v>
+      </c>
+      <c r="C114">
+        <v>0.9109501586560614</v>
+      </c>
+      <c r="D114">
+        <v>0.04323137779504165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115">
+        <v>0.973827563667369</v>
+      </c>
+      <c r="C115">
+        <v>0.01446838813558116</v>
+      </c>
+      <c r="D115">
+        <v>0.01170404819704982</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116">
+        <v>0.3555809542671451</v>
+      </c>
+      <c r="C116">
+        <v>0.6422194953700254</v>
+      </c>
+      <c r="D116">
+        <v>0.002199550362829421</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117">
+        <v>0.3507963165267598</v>
+      </c>
+      <c r="C117">
+        <v>0.6471847774053441</v>
+      </c>
+      <c r="D117">
+        <v>0.002018906067896026</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118">
+        <v>0.4029909841924387</v>
+      </c>
+      <c r="C118">
+        <v>0.4300019030335762</v>
+      </c>
+      <c r="D118">
+        <v>0.1670071127739851</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119">
+        <v>0.7720259979279847</v>
+      </c>
+      <c r="C119">
+        <v>0.008975277423463383</v>
+      </c>
+      <c r="D119">
+        <v>0.218998724648552</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120">
+        <v>0.01751646238977702</v>
+      </c>
+      <c r="C120">
+        <v>0.9659033598200274</v>
+      </c>
+      <c r="D120">
+        <v>0.01658017779019554</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121">
+        <v>0.02990445859946694</v>
+      </c>
+      <c r="C121">
+        <v>0.1960204455253647</v>
+      </c>
+      <c r="D121">
+        <v>0.7740750958751683</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122">
+        <v>0.01229744226871718</v>
+      </c>
+      <c r="C122">
+        <v>0.9424262700483519</v>
+      </c>
+      <c r="D122">
+        <v>0.04527628768293099</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123">
+        <v>0.01426977060907753</v>
+      </c>
+      <c r="C123">
+        <v>0.1526123088176129</v>
+      </c>
+      <c r="D123">
+        <v>0.8331179205733096</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124">
+        <v>0.9794477959166878</v>
+      </c>
+      <c r="C124">
+        <v>0.00927878852253418</v>
+      </c>
+      <c r="D124">
+        <v>0.01127341556077788</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125">
+        <v>0.03128832174222854</v>
+      </c>
+      <c r="C125">
+        <v>0.5978979615446244</v>
+      </c>
+      <c r="D125">
+        <v>0.370813716713147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126">
+        <v>0.3704820401556241</v>
+      </c>
+      <c r="C126">
+        <v>0.5058284348321326</v>
+      </c>
+      <c r="D126">
+        <v>0.1236895250122433</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127">
+        <v>0.1975654452411467</v>
+      </c>
+      <c r="C127">
+        <v>0.5492282989251164</v>
+      </c>
+      <c r="D127">
+        <v>0.253206255833737</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128">
+        <v>0.01410188870127964</v>
+      </c>
+      <c r="C128">
+        <v>0.9708154416683902</v>
+      </c>
+      <c r="D128">
+        <v>0.01508266963033012</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129">
+        <v>0.1236701877870363</v>
+      </c>
+      <c r="C129">
+        <v>0.3977606598146151</v>
+      </c>
+      <c r="D129">
+        <v>0.4785691523983487</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130">
+        <v>0.6313441233472279</v>
+      </c>
+      <c r="C130">
+        <v>0.2635252804250963</v>
+      </c>
+      <c r="D130">
+        <v>0.1051305962276758</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131">
+        <v>0.6441034702790978</v>
+      </c>
+      <c r="C131">
+        <v>0.3506699621519293</v>
+      </c>
+      <c r="D131">
+        <v>0.005226567568972948</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132">
+        <v>0.4144318236273453</v>
+      </c>
+      <c r="C132">
+        <v>0.5679937857400688</v>
+      </c>
+      <c r="D132">
+        <v>0.01757439063258586</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133">
+        <v>0.9050989002268196</v>
+      </c>
+      <c r="C133">
+        <v>0.03549666204937136</v>
+      </c>
+      <c r="D133">
+        <v>0.059404437723809</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134">
+        <v>0.7648546197646613</v>
+      </c>
+      <c r="C134">
+        <v>0.2240298498056855</v>
+      </c>
+      <c r="D134">
+        <v>0.01111553042965324</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135">
+        <v>0.2645573506976767</v>
+      </c>
+      <c r="C135">
+        <v>0.4693199091787536</v>
+      </c>
+      <c r="D135">
+        <v>0.2661227401235696</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136">
+        <v>0.9930227867391022</v>
+      </c>
+      <c r="C136">
+        <v>0.003828855513272677</v>
+      </c>
+      <c r="D136">
+        <v>0.003148357747625094</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137">
+        <v>0.9907538004339611</v>
+      </c>
+      <c r="C137">
+        <v>0.004690132986506479</v>
+      </c>
+      <c r="D137">
+        <v>0.004556066579532557</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138">
+        <v>0.8757745727822757</v>
+      </c>
+      <c r="C138">
+        <v>0.1199724783822179</v>
+      </c>
+      <c r="D138">
+        <v>0.004252948835506437</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139">
+        <v>0.7897183113212151</v>
+      </c>
+      <c r="C139">
+        <v>0.202079262713996</v>
+      </c>
+      <c r="D139">
+        <v>0.008202425964788991</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140">
+        <v>0.8190840035598861</v>
+      </c>
+      <c r="C140">
+        <v>0.170224731489171</v>
+      </c>
+      <c r="D140">
+        <v>0.01069126495094302</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141">
+        <v>0.2049787750379745</v>
+      </c>
+      <c r="C141">
+        <v>0.5390477110862472</v>
+      </c>
+      <c r="D141">
+        <v>0.2559735138757785</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142">
+        <v>0.9783387321502514</v>
+      </c>
+      <c r="C142">
+        <v>0.01188457967770623</v>
+      </c>
+      <c r="D142">
+        <v>0.009776688172042374</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143">
+        <v>0.01691545792469645</v>
+      </c>
+      <c r="C143">
+        <v>0.9656014839996062</v>
+      </c>
+      <c r="D143">
+        <v>0.01748305807569735</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144">
+        <v>0.06134827872936658</v>
+      </c>
+      <c r="C144">
+        <v>0.8730565075425591</v>
+      </c>
+      <c r="D144">
+        <v>0.06559521372807438</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145">
+        <v>0.05670788126293658</v>
+      </c>
+      <c r="C145">
+        <v>0.8676163437551866</v>
+      </c>
+      <c r="D145">
+        <v>0.07567577498187683</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146">
+        <v>0.9386519638085179</v>
+      </c>
+      <c r="C146">
+        <v>0.05842781028673439</v>
+      </c>
+      <c r="D146">
+        <v>0.002920225904747749</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147">
+        <v>0.505298549307567</v>
+      </c>
+      <c r="C147">
+        <v>0.4846130833003041</v>
+      </c>
+      <c r="D147">
+        <v>0.01008836739212874</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148">
+        <v>0.9723316063510924</v>
+      </c>
+      <c r="C148">
+        <v>0.01314195724263762</v>
+      </c>
+      <c r="D148">
+        <v>0.01452643640627002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149">
+        <v>0.7589188589724025</v>
+      </c>
+      <c r="C149">
+        <v>0.2163743290912945</v>
+      </c>
+      <c r="D149">
+        <v>0.02470681193630311</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150">
+        <v>0.01046485946695483</v>
+      </c>
+      <c r="C150">
+        <v>0.8428319361868316</v>
+      </c>
+      <c r="D150">
+        <v>0.1467032043462136</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151">
+        <v>0.4150207798487293</v>
+      </c>
+      <c r="C151">
+        <v>0.5766517676276744</v>
+      </c>
+      <c r="D151">
+        <v>0.00832745252359632</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152">
+        <v>0.9095761025233037</v>
+      </c>
+      <c r="C152">
+        <v>0.042995908814987</v>
+      </c>
+      <c r="D152">
+        <v>0.04742798866170934</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153">
+        <v>0.6850442141762487</v>
+      </c>
+      <c r="C153">
+        <v>0.30878338571283</v>
+      </c>
+      <c r="D153">
+        <v>0.006172400110921262</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154">
+        <v>0.2176605443838623</v>
+      </c>
+      <c r="C154">
+        <v>0.7316309080414956</v>
+      </c>
+      <c r="D154">
+        <v>0.05070854757464201</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155">
+        <v>0.6374218860369698</v>
+      </c>
+      <c r="C155">
+        <v>0.3590748274574854</v>
+      </c>
+      <c r="D155">
+        <v>0.003503286505544708</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156">
+        <v>0.827832523102864</v>
+      </c>
+      <c r="C156">
+        <v>0.05834053220725879</v>
+      </c>
+      <c r="D156">
+        <v>0.1138269446898772</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157">
+        <v>0.2535910481679554</v>
+      </c>
+      <c r="C157">
+        <v>0.1678373019818279</v>
+      </c>
+      <c r="D157">
+        <v>0.5785716498502167</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158">
+        <v>0.009777030661779405</v>
+      </c>
+      <c r="C158">
+        <v>0.3130212311741083</v>
+      </c>
+      <c r="D158">
+        <v>0.6772017381641122</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159">
+        <v>0.7963560516866102</v>
+      </c>
+      <c r="C159">
+        <v>0.1958377310547055</v>
+      </c>
+      <c r="D159">
+        <v>0.00780621725868438</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160">
+        <v>0.5867180492440177</v>
+      </c>
+      <c r="C160">
+        <v>0.2734297778076386</v>
+      </c>
+      <c r="D160">
+        <v>0.1398521729483436</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161">
+        <v>0.6200613287758864</v>
+      </c>
+      <c r="C161">
+        <v>0.2462226921139531</v>
+      </c>
+      <c r="D161">
+        <v>0.1337159791101605</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162">
+        <v>0.04245019610172255</v>
+      </c>
+      <c r="C162">
+        <v>0.6738386268194966</v>
+      </c>
+      <c r="D162">
+        <v>0.2837111770787809</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163">
+        <v>0.22941822465546</v>
+      </c>
+      <c r="C163">
+        <v>0.628167528660297</v>
+      </c>
+      <c r="D163">
+        <v>0.1424142466842431</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164">
+        <v>0.2003775727165568</v>
+      </c>
+      <c r="C164">
+        <v>0.7837063467483726</v>
+      </c>
+      <c r="D164">
+        <v>0.01591608053507066</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165">
+        <v>0.01830018757081217</v>
+      </c>
+      <c r="C165">
+        <v>0.9632659981006476</v>
+      </c>
+      <c r="D165">
+        <v>0.01843381432854018</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166">
+        <v>0.9792030821415278</v>
+      </c>
+      <c r="C166">
+        <v>0.01077087757876836</v>
+      </c>
+      <c r="D166">
+        <v>0.01002604027970378</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167">
+        <v>0.6468998465108252</v>
+      </c>
+      <c r="C167">
+        <v>0.345861946474437</v>
+      </c>
+      <c r="D167">
+        <v>0.007238207014737703</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168">
+        <v>0.3608399570350162</v>
+      </c>
+      <c r="C168">
+        <v>0.5877407009468839</v>
+      </c>
+      <c r="D168">
+        <v>0.05141934201809979</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169">
+        <v>0.2229898648990396</v>
+      </c>
+      <c r="C169">
+        <v>0.7554198582497909</v>
+      </c>
+      <c r="D169">
+        <v>0.02159027685116961</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170">
+        <v>0.1430509552573488</v>
+      </c>
+      <c r="C170">
+        <v>0.4601093406636885</v>
+      </c>
+      <c r="D170">
+        <v>0.3968397040789628</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171">
+        <v>0.992573449007076</v>
+      </c>
+      <c r="C171">
+        <v>0.003918517851896618</v>
+      </c>
+      <c r="D171">
+        <v>0.003508033141027495</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172">
+        <v>0.5205618764347587</v>
+      </c>
+      <c r="C172">
+        <v>0.4713771811523026</v>
+      </c>
+      <c r="D172">
+        <v>0.00806094241293864</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173">
+        <v>0.8315514578356584</v>
+      </c>
+      <c r="C173">
+        <v>0.008072808903782994</v>
+      </c>
+      <c r="D173">
+        <v>0.1603757332605586</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174">
+        <v>0.6492513374628015</v>
+      </c>
+      <c r="C174">
+        <v>0.3101391088777549</v>
+      </c>
+      <c r="D174">
+        <v>0.04060955365944358</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175">
+        <v>0.2086893359673166</v>
+      </c>
+      <c r="C175">
+        <v>0.4266090769987436</v>
+      </c>
+      <c r="D175">
+        <v>0.3647015870339397</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176">
+        <v>0.9250334680640951</v>
+      </c>
+      <c r="C176">
+        <v>0.01503215002569781</v>
+      </c>
+      <c r="D176">
+        <v>0.05993438191020708</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177">
+        <v>0.4855513408284698</v>
+      </c>
+      <c r="C177">
+        <v>0.5062146978968504</v>
+      </c>
+      <c r="D177">
+        <v>0.00823396127467972</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178">
+        <v>0.9441382849381724</v>
+      </c>
+      <c r="C178">
+        <v>0.04823828089915365</v>
+      </c>
+      <c r="D178">
+        <v>0.007623434162673964</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179">
+        <v>0.7605815709403685</v>
+      </c>
+      <c r="C179">
+        <v>0.2277600422936276</v>
+      </c>
+      <c r="D179">
+        <v>0.01165838676600386</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180">
+        <v>0.9391198642464134</v>
+      </c>
+      <c r="C180">
+        <v>0.0307964678374913</v>
+      </c>
+      <c r="D180">
+        <v>0.03008366791609534</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181">
+        <v>0.9920792246744415</v>
+      </c>
+      <c r="C181">
+        <v>0.004098309320645242</v>
+      </c>
+      <c r="D181">
+        <v>0.003822466004913299</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182">
+        <v>0.277236906669982</v>
+      </c>
+      <c r="C182">
+        <v>0.6747826590097739</v>
+      </c>
+      <c r="D182">
+        <v>0.04798043432024407</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183">
+        <v>0.9841818351493231</v>
+      </c>
+      <c r="C183">
+        <v>0.008438907367192463</v>
+      </c>
+      <c r="D183">
+        <v>0.007379257483484333</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184">
+        <v>0.8677687814209941</v>
+      </c>
+      <c r="C184">
+        <v>0.1142530624359954</v>
+      </c>
+      <c r="D184">
+        <v>0.01797815614301044</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185">
+        <v>0.9892819400550218</v>
+      </c>
+      <c r="C185">
+        <v>0.005546563270457615</v>
+      </c>
+      <c r="D185">
+        <v>0.005171496674520794</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186">
+        <v>0.4992050703796154</v>
+      </c>
+      <c r="C186">
+        <v>0.488691002193446</v>
+      </c>
+      <c r="D186">
+        <v>0.01210392742693866</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187">
+        <v>0.2515737115218653</v>
+      </c>
+      <c r="C187">
+        <v>0.7041021691906939</v>
+      </c>
+      <c r="D187">
+        <v>0.04432411928744075</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188">
+        <v>0.01312587365644307</v>
+      </c>
+      <c r="C188">
+        <v>0.9256485215707231</v>
+      </c>
+      <c r="D188">
+        <v>0.06122560477283386</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189">
+        <v>0.839964219604548</v>
+      </c>
+      <c r="C189">
+        <v>0.01431997613903447</v>
+      </c>
+      <c r="D189">
+        <v>0.1457158042564175</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190">
+        <v>0.4803115755073613</v>
+      </c>
+      <c r="C190">
+        <v>0.4959700807566526</v>
+      </c>
+      <c r="D190">
+        <v>0.02371834373598609</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191">
+        <v>0.04497663813521125</v>
+      </c>
+      <c r="C191">
+        <v>0.8944471370547847</v>
+      </c>
+      <c r="D191">
+        <v>0.06057622481000409</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192">
+        <v>0.2936374942995939</v>
+      </c>
+      <c r="C192">
+        <v>0.699877264396044</v>
+      </c>
+      <c r="D192">
+        <v>0.006485241304361944</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193">
+        <v>0.5594219003259303</v>
+      </c>
+      <c r="C193">
+        <v>0.3648881805903083</v>
+      </c>
+      <c r="D193">
+        <v>0.07568991908376134</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194">
+        <v>0.4343052976167538</v>
+      </c>
+      <c r="C194">
+        <v>0.5273263046984092</v>
+      </c>
+      <c r="D194">
+        <v>0.03836839768483696</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195">
+        <v>0.744577239581808</v>
+      </c>
+      <c r="C195">
+        <v>0.2465936199324035</v>
+      </c>
+      <c r="D195">
+        <v>0.008829140485788494</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196">
+        <v>0.02527147703389571</v>
+      </c>
+      <c r="C196">
+        <v>0.9399501157144541</v>
+      </c>
+      <c r="D196">
+        <v>0.0347784072516503</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197">
+        <v>0.8166588969485349</v>
+      </c>
+      <c r="C197">
+        <v>0.09870710472402401</v>
+      </c>
+      <c r="D197">
+        <v>0.08463399832744121</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198">
+        <v>0.9845803345325237</v>
+      </c>
+      <c r="C198">
+        <v>0.008412725109231313</v>
+      </c>
+      <c r="D198">
+        <v>0.007006940358245</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199">
+        <v>0.9113790741750932</v>
+      </c>
+      <c r="C199">
+        <v>0.04571757005099696</v>
+      </c>
+      <c r="D199">
+        <v>0.04290335577390991</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200">
+        <v>0.5546147208513195</v>
+      </c>
+      <c r="C200">
+        <v>0.4348978655130581</v>
+      </c>
+      <c r="D200">
+        <v>0.01048741363562234</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201">
+        <v>0.2895135893667323</v>
+      </c>
+      <c r="C201">
+        <v>0.707866263186712</v>
+      </c>
+      <c r="D201">
+        <v>0.002620147446555531</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202">
+        <v>0.5649182255260775</v>
+      </c>
+      <c r="C202">
+        <v>0.1503056943066096</v>
+      </c>
+      <c r="D202">
+        <v>0.2847760801673128</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203">
+        <v>0.6148804896829398</v>
+      </c>
+      <c r="C203">
+        <v>0.08365351825011742</v>
+      </c>
+      <c r="D203">
+        <v>0.3014659920669428</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204">
+        <v>0.02990277854392706</v>
+      </c>
+      <c r="C204">
+        <v>0.3890307676481606</v>
+      </c>
+      <c r="D204">
+        <v>0.5810664538079122</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205">
+        <v>0.009888434345265784</v>
+      </c>
+      <c r="C205">
+        <v>0.6978793858515734</v>
+      </c>
+      <c r="D205">
+        <v>0.2922321798031608</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206">
+        <v>0.4674688004819568</v>
+      </c>
+      <c r="C206">
+        <v>0.2515429594388393</v>
+      </c>
+      <c r="D206">
+        <v>0.2809882400792039</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207">
+        <v>0.6759030894739861</v>
+      </c>
+      <c r="C207">
+        <v>0.3136786186653219</v>
+      </c>
+      <c r="D207">
+        <v>0.01041829186069191</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208">
+        <v>0.1193022792592722</v>
+      </c>
+      <c r="C208">
+        <v>0.7682739160829301</v>
+      </c>
+      <c r="D208">
+        <v>0.1124238046577979</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209">
+        <v>0.01088048635629396</v>
+      </c>
+      <c r="C209">
+        <v>0.9784792601384374</v>
+      </c>
+      <c r="D209">
+        <v>0.01064025350526857</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210">
+        <v>0.474263162559604</v>
+      </c>
+      <c r="C210">
+        <v>0.5171758360754555</v>
+      </c>
+      <c r="D210">
+        <v>0.008561001364940592</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211">
+        <v>0.4167873497992997</v>
+      </c>
+      <c r="C211">
+        <v>0.5709604414658728</v>
+      </c>
+      <c r="D211">
+        <v>0.01225220873482759</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212">
+        <v>0.7850398171121697</v>
+      </c>
+      <c r="C212">
+        <v>0.0549656456211535</v>
+      </c>
+      <c r="D212">
+        <v>0.1599945372666768</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213">
+        <v>0.6174539250567018</v>
+      </c>
+      <c r="C213">
+        <v>0.375588132431449</v>
+      </c>
+      <c r="D213">
+        <v>0.006957942511849105</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214">
+        <v>0.869033918165184</v>
+      </c>
+      <c r="C214">
+        <v>0.009361079443294411</v>
+      </c>
+      <c r="D214">
+        <v>0.1216050023915216</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215">
+        <v>0.4480854276912049</v>
+      </c>
+      <c r="C215">
+        <v>0.4742751325095353</v>
+      </c>
+      <c r="D215">
+        <v>0.07763943979925982</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216">
+        <v>0.03560434587551645</v>
+      </c>
+      <c r="C216">
+        <v>0.9167310202061792</v>
+      </c>
+      <c r="D216">
+        <v>0.04766463391830418</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217">
+        <v>0.9890548303855077</v>
+      </c>
+      <c r="C217">
+        <v>0.005554460391952153</v>
+      </c>
+      <c r="D217">
+        <v>0.00539070922254023</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218">
+        <v>0.9937731989154468</v>
+      </c>
+      <c r="C218">
+        <v>0.003376694220815899</v>
+      </c>
+      <c r="D218">
+        <v>0.002850106863737396</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219">
+        <v>0.1105052864564456</v>
+      </c>
+      <c r="C219">
+        <v>0.6869608595450793</v>
+      </c>
+      <c r="D219">
+        <v>0.2025338539984751</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220">
+        <v>0.05920575806979628</v>
+      </c>
+      <c r="C220">
+        <v>0.8351218667976031</v>
+      </c>
+      <c r="D220">
+        <v>0.1056723751326006</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221">
+        <v>0.630532282295763</v>
+      </c>
+      <c r="C221">
+        <v>0.3357363887095647</v>
+      </c>
+      <c r="D221">
+        <v>0.03373132899467247</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222">
+        <v>0.06941628817051675</v>
+      </c>
+      <c r="C222">
+        <v>0.9167911924120645</v>
+      </c>
+      <c r="D222">
+        <v>0.01379251941741869</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223">
+        <v>0.01090419485368396</v>
+      </c>
+      <c r="C223">
+        <v>0.9779260257405328</v>
+      </c>
+      <c r="D223">
+        <v>0.01116977940578323</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224">
+        <v>0.9672808833550302</v>
+      </c>
+      <c r="C224">
+        <v>0.01764108510134562</v>
+      </c>
+      <c r="D224">
+        <v>0.01507803154362413</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225">
+        <v>0.02498808025520669</v>
+      </c>
+      <c r="C225">
+        <v>0.9328852700794935</v>
+      </c>
+      <c r="D225">
+        <v>0.04212664966529991</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226">
+        <v>0.5193353357161414</v>
+      </c>
+      <c r="C226">
+        <v>0.4722915282715356</v>
+      </c>
+      <c r="D226">
+        <v>0.00837313601232301</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227">
+        <v>0.01699771730981092</v>
+      </c>
+      <c r="C227">
+        <v>0.9643649190555598</v>
+      </c>
+      <c r="D227">
+        <v>0.0186373636346294</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228">
+        <v>0.2491750860479489</v>
+      </c>
+      <c r="C228">
+        <v>0.7394698103859775</v>
+      </c>
+      <c r="D228">
+        <v>0.01135510356607358</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229">
+        <v>0.2766320355647282</v>
+      </c>
+      <c r="C229">
+        <v>0.7206473951914313</v>
+      </c>
+      <c r="D229">
+        <v>0.002720569243840377</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230">
+        <v>0.7950501076270586</v>
+      </c>
+      <c r="C230">
+        <v>0.09663893978149157</v>
+      </c>
+      <c r="D230">
+        <v>0.1083109525914498</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231">
+        <v>0.2650549721513454</v>
+      </c>
+      <c r="C231">
+        <v>0.3956535256328692</v>
+      </c>
+      <c r="D231">
+        <v>0.3392915022157855</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232">
+        <v>0.6836533281159054</v>
+      </c>
+      <c r="C232">
+        <v>0.3081970308907208</v>
+      </c>
+      <c r="D232">
+        <v>0.008149640993373829</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233">
+        <v>0.107982835701625</v>
+      </c>
+      <c r="C233">
+        <v>0.880617983517759</v>
+      </c>
+      <c r="D233">
+        <v>0.01139918078061597</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234">
+        <v>0.5085151531950217</v>
+      </c>
+      <c r="C234">
+        <v>0.3909417731034596</v>
+      </c>
+      <c r="D234">
+        <v>0.1005430737015186</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235">
+        <v>0.4248978278550578</v>
+      </c>
+      <c r="C235">
+        <v>0.5645604473149489</v>
+      </c>
+      <c r="D235">
+        <v>0.01054172482999324</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236">
+        <v>0.5379138458928271</v>
+      </c>
+      <c r="C236">
+        <v>0.4525243239011253</v>
+      </c>
+      <c r="D236">
+        <v>0.00956183020604765</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237">
+        <v>0.1256646353467257</v>
+      </c>
+      <c r="C237">
+        <v>0.8681356693235059</v>
+      </c>
+      <c r="D237">
+        <v>0.006199695329768488</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238">
+        <v>0.3730158274684511</v>
+      </c>
+      <c r="C238">
+        <v>0.537566075421807</v>
+      </c>
+      <c r="D238">
+        <v>0.08941809710974194</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239">
+        <v>0.234663382571671</v>
+      </c>
+      <c r="C239">
+        <v>0.7171120422267671</v>
+      </c>
+      <c r="D239">
+        <v>0.0482245752015619</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240">
+        <v>0.4973290142688604</v>
+      </c>
+      <c r="C240">
+        <v>0.4896158173260736</v>
+      </c>
+      <c r="D240">
+        <v>0.013055168405066</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241">
+        <v>0.01847335875178268</v>
+      </c>
+      <c r="C241">
+        <v>0.9617649022935115</v>
+      </c>
+      <c r="D241">
+        <v>0.01976173895470577</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242">
+        <v>0.627292810546179</v>
+      </c>
+      <c r="C242">
+        <v>0.008848617319185206</v>
+      </c>
+      <c r="D242">
+        <v>0.3638585721346358</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243">
+        <v>0.4508306325484241</v>
+      </c>
+      <c r="C243">
+        <v>0.3198647213220842</v>
+      </c>
+      <c r="D243">
+        <v>0.2293046461294916</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244">
+        <v>0.08739707881028337</v>
+      </c>
+      <c r="C244">
+        <v>0.8752313934342811</v>
+      </c>
+      <c r="D244">
+        <v>0.03737152775543549</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245">
+        <v>0.9899694585171201</v>
+      </c>
+      <c r="C245">
+        <v>0.005051534957701765</v>
+      </c>
+      <c r="D245">
+        <v>0.004979006525177958</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246">
+        <v>0.09181238498606958</v>
+      </c>
+      <c r="C246">
+        <v>0.8206311761350804</v>
+      </c>
+      <c r="D246">
+        <v>0.08755643887884991</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247">
+        <v>0.9799008358363552</v>
+      </c>
+      <c r="C247">
+        <v>0.01075973070328628</v>
+      </c>
+      <c r="D247">
+        <v>0.009339433460358364</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248">
+        <v>0.02172040567282862</v>
+      </c>
+      <c r="C248">
+        <v>0.9527925131167106</v>
+      </c>
+      <c r="D248">
+        <v>0.02548708121046067</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249">
+        <v>0.9500377395365813</v>
+      </c>
+      <c r="C249">
+        <v>0.04513284554259324</v>
+      </c>
+      <c r="D249">
+        <v>0.004829414920825491</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250">
+        <v>0.8541977400378624</v>
+      </c>
+      <c r="C250">
+        <v>0.08399555318081406</v>
+      </c>
+      <c r="D250">
+        <v>0.06180670678132351</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251">
+        <v>0.9262411001372705</v>
+      </c>
+      <c r="C251">
+        <v>0.009010353359691813</v>
+      </c>
+      <c r="D251">
+        <v>0.06474854650303771</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252">
+        <v>0.9943124050872834</v>
+      </c>
+      <c r="C252">
+        <v>0.003001727352632056</v>
+      </c>
+      <c r="D252">
+        <v>0.002685867560084659</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253">
+        <v>0.04412675511080696</v>
+      </c>
+      <c r="C253">
+        <v>0.9116873043512365</v>
+      </c>
+      <c r="D253">
+        <v>0.04418594053795655</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254">
+        <v>0.971373256130116</v>
+      </c>
+      <c r="C254">
+        <v>0.01634022083242386</v>
+      </c>
+      <c r="D254">
+        <v>0.01228652303746013</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255">
+        <v>0.3863995237556577</v>
+      </c>
+      <c r="C255">
+        <v>0.3486107647419999</v>
+      </c>
+      <c r="D255">
+        <v>0.2649897115023424</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256">
+        <v>0.9641687676287841</v>
+      </c>
+      <c r="C256">
+        <v>0.005398663663836554</v>
+      </c>
+      <c r="D256">
+        <v>0.03043256870737926</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257">
+        <v>0.9815864934013536</v>
+      </c>
+      <c r="C257">
+        <v>0.002416216085620199</v>
+      </c>
+      <c r="D257">
+        <v>0.01599729051302614</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258">
+        <v>0.1997626768212471</v>
+      </c>
+      <c r="C258">
+        <v>0.7873343925619544</v>
+      </c>
+      <c r="D258">
+        <v>0.01290293061679857</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259">
+        <v>0.8214895866969623</v>
+      </c>
+      <c r="C259">
+        <v>0.007950392245531379</v>
+      </c>
+      <c r="D259">
+        <v>0.1705600210575064</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260">
+        <v>0.02964029121924658</v>
+      </c>
+      <c r="C260">
+        <v>0.9415555644946405</v>
+      </c>
+      <c r="D260">
+        <v>0.02880414428611296</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261">
+        <v>0.339873174141168</v>
+      </c>
+      <c r="C261">
+        <v>0.6504689266776186</v>
+      </c>
+      <c r="D261">
+        <v>0.009657899181213441</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262">
+        <v>0.461043446667381</v>
+      </c>
+      <c r="C262">
+        <v>0.4947524565969112</v>
+      </c>
+      <c r="D262">
+        <v>0.04420409673570781</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263">
+        <v>0.2748130116540441</v>
+      </c>
+      <c r="C263">
+        <v>0.5015419797754579</v>
+      </c>
+      <c r="D263">
+        <v>0.2236450085704979</v>
       </c>
     </row>
   </sheetData>
